--- a/data/trans_dic/Q25_A_R3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Q25_A_R3-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,33; 20,15</t>
+          <t>11,78; 19,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,02; 20,23</t>
+          <t>12,84; 19,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,61; 20,64</t>
+          <t>11,26; 20,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,91; 17,76</t>
+          <t>7,84; 17,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,6; 40,22</t>
+          <t>15,93; 40,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,08; 53,18</t>
+          <t>28,37; 51,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,29; 34,01</t>
+          <t>10,1; 34,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,58; 35,0</t>
+          <t>11,16; 39,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,21; 21,34</t>
+          <t>13,32; 21,4</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,2; 23,65</t>
+          <t>16,55; 23,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,64; 21,3</t>
+          <t>12,28; 20,93</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,84; 19,58</t>
+          <t>10,12; 19,43</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,26; 37,97</t>
+          <t>26,09; 38,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,13; 42,19</t>
+          <t>32,1; 42,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,67; 33,46</t>
+          <t>24,18; 33,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,24; 85,24</t>
+          <t>14,17; 85,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,7; 51,67</t>
+          <t>35,42; 51,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,34; 41,97</t>
+          <t>30,01; 42,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,08; 42,29</t>
+          <t>29,43; 42,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,23; 35,43</t>
+          <t>24,34; 35,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31,63; 41,32</t>
+          <t>31,31; 40,8</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>32,25; 40,5</t>
+          <t>32,42; 40,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,1; 35,3</t>
+          <t>27,28; 35,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,37; 77,9</t>
+          <t>20,04; 77,56</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,09; 43,5</t>
+          <t>20,73; 42,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,35; 44,74</t>
+          <t>22,39; 43,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,65; 33,0</t>
+          <t>16,38; 33,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,22; 26,87</t>
+          <t>12,28; 26,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,26; 47,0</t>
+          <t>20,22; 46,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,53; 46,59</t>
+          <t>24,47; 46,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,02; 35,87</t>
+          <t>18,34; 35,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,74; 32,15</t>
+          <t>15,58; 30,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,37; 40,72</t>
+          <t>24,51; 40,85</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>26,3; 41,47</t>
+          <t>26,29; 41,05</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18,77; 32,36</t>
+          <t>19,6; 31,94</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,81; 26,15</t>
+          <t>15,41; 25,62</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,69; 27,44</t>
+          <t>20,43; 27,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,85; 30,13</t>
+          <t>23,74; 30,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,31; 26,9</t>
+          <t>20,11; 26,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,32; 73,23</t>
+          <t>14,34; 70,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,96; 44,19</t>
+          <t>31,55; 43,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,47; 41,19</t>
+          <t>31,08; 41,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,24; 36,03</t>
+          <t>26,65; 36,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,68; 30,68</t>
+          <t>22,52; 31,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,84; 30,98</t>
+          <t>24,84; 30,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,45; 33,11</t>
+          <t>27,37; 32,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>23,6; 29,1</t>
+          <t>23,58; 28,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,57; 65,77</t>
+          <t>18,4; 66,05</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que dejo de fumar hace menos tiempo (3.374 años)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>45345</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>62234</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>36684</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>19642</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>13780</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>28030</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>9844</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8720</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>59125</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>90264</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>46528</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>28362</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>34941; 59269</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>49367; 76844</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>26652; 49182</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12653; 28706</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8055; 20430</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>19878; 36004</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4707; 16247</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4724; 16800</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>46261; 74308</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>75199; 108043</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>34770; 59288</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>20620; 39585</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>73966</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>128914</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>101078</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>291142</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>63991</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>87127</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>81881</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>59142</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>137957</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>216041</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>182959</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>350284</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>60889; 90232</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>111775; 148466</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>85499; 119931</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>76763; 461684</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>52433; 76570</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>72977; 102959</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>67576; 98012</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>48728; 70992</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>119399; 155594</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>191721; 241182</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>159087; 206048</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>148649; 575382</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>26290</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>31055</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>23975</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>25330</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>16320</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>27246</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>27885</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>19537</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>42611</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>58302</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>51860</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>44867</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>17205; 34881</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>21322; 41754</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>16601; 33472</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>16811; 36594</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10087; 23254</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>19058; 35932</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>19145; 37459</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13474; 26748</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>32572; 54283</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>45511; 71064</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>40313; 65695</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>34409; 57232</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>145602</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>222203</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>161737</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>336115</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>94091</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>142404</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>119609</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>87399</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>239692</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>364607</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>281347</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>423513</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>125205; 167489</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>196522; 251189</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>139048; 186498</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>120474; 591547</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>78394; 108845</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>121547; 161016</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>101439; 138175</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>74079; 102687</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>213945; 265436</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>333682; 398064</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>252786; 309876</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>215113; 772086</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>